--- a/tests/mock_excel_db/strains.xlsx
+++ b/tests/mock_excel_db/strains.xlsx
@@ -20,18 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Tag</t>
   </si>
   <si>
+    <t xml:space="preserve">Strain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plasmids</t>
   </si>
   <si>
+    <t xml:space="preserve">Antibiotics</t>
+  </si>
+  <si>
     <t xml:space="preserve">s2</t>
   </si>
   <si>
+    <t xml:space="preserve">s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3</t>
+  </si>
+  <si>
     <t xml:space="preserve">p2,p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amp,Kan</t>
   </si>
 </sst>
 </file>
@@ -132,28 +150,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
